--- a/results/mp/tinybert/toy-spam/confidence/84/stop-words-0.2/avg_0.002_scores.xlsx
+++ b/results/mp/tinybert/toy-spam/confidence/84/stop-words-0.2/avg_0.002_scores.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="124">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="132">
   <si>
     <t>anchor score</t>
   </si>
@@ -43,279 +43,294 @@
     <t>poorly</t>
   </si>
   <si>
+    <t>awful</t>
+  </si>
+  <si>
+    <t>crap</t>
+  </si>
+  <si>
+    <t>disappointment</t>
+  </si>
+  <si>
+    <t>however</t>
+  </si>
+  <si>
+    <t>disappointed</t>
+  </si>
+  <si>
+    <t>poor</t>
+  </si>
+  <si>
+    <t>returned</t>
+  </si>
+  <si>
+    <t>thin</t>
+  </si>
+  <si>
     <t>disappointing</t>
   </si>
   <si>
+    <t>broke</t>
+  </si>
+  <si>
+    <t>waste</t>
+  </si>
+  <si>
+    <t>instead</t>
+  </si>
+  <si>
+    <t>worst</t>
+  </si>
+  <si>
     <t>ripped</t>
   </si>
   <si>
-    <t>crap</t>
-  </si>
-  <si>
-    <t>disappointment</t>
-  </si>
-  <si>
-    <t>bottom</t>
-  </si>
-  <si>
-    <t>thin</t>
-  </si>
-  <si>
-    <t>however</t>
-  </si>
-  <si>
-    <t>poor</t>
-  </si>
-  <si>
-    <t>returned</t>
-  </si>
-  <si>
-    <t>disappointed</t>
-  </si>
-  <si>
-    <t>broke</t>
-  </si>
-  <si>
-    <t>worst</t>
-  </si>
-  <si>
-    <t>waste</t>
+    <t>junk</t>
+  </si>
+  <si>
+    <t>water</t>
+  </si>
+  <si>
+    <t>probably</t>
+  </si>
+  <si>
+    <t>smaller</t>
+  </si>
+  <si>
+    <t>guess</t>
   </si>
   <si>
     <t>tiny</t>
   </si>
   <si>
-    <t>water</t>
+    <t>small</t>
   </si>
   <si>
     <t>pool</t>
   </si>
   <si>
-    <t>instead</t>
-  </si>
-  <si>
-    <t>junk</t>
-  </si>
-  <si>
-    <t>smaller</t>
-  </si>
-  <si>
-    <t>probably</t>
-  </si>
-  <si>
-    <t>guess</t>
+    <t>low</t>
+  </si>
+  <si>
+    <t>broken</t>
+  </si>
+  <si>
+    <t>lasted</t>
+  </si>
+  <si>
+    <t>okay</t>
   </si>
   <si>
     <t>missing</t>
   </si>
   <si>
-    <t>okay</t>
-  </si>
-  <si>
-    <t>small</t>
-  </si>
-  <si>
-    <t>broken</t>
+    <t>apart</t>
+  </si>
+  <si>
+    <t>description</t>
+  </si>
+  <si>
+    <t>less</t>
+  </si>
+  <si>
+    <t>paint</t>
+  </si>
+  <si>
+    <t>plastic</t>
+  </si>
+  <si>
+    <t>short</t>
+  </si>
+  <si>
+    <t>un</t>
   </si>
   <si>
     <t>wrong</t>
   </si>
   <si>
-    <t>plastic</t>
-  </si>
-  <si>
-    <t>paint</t>
-  </si>
-  <si>
-    <t>lasted</t>
-  </si>
-  <si>
-    <t>short</t>
-  </si>
-  <si>
     <t>di</t>
   </si>
   <si>
     <t>fell</t>
   </si>
   <si>
-    <t>un</t>
+    <t>half</t>
+  </si>
+  <si>
+    <t>thought</t>
+  </si>
+  <si>
+    <t>might</t>
+  </si>
+  <si>
+    <t>tried</t>
+  </si>
+  <si>
+    <t>ok</t>
   </si>
   <si>
     <t>difficult</t>
   </si>
   <si>
-    <t>less</t>
-  </si>
-  <si>
-    <t>apart</t>
+    <t>fl</t>
+  </si>
+  <si>
+    <t>bit</t>
+  </si>
+  <si>
+    <t>cheap</t>
   </si>
   <si>
     <t>maybe</t>
   </si>
   <si>
+    <t>light</t>
+  </si>
+  <si>
+    <t>though</t>
+  </si>
+  <si>
     <t>pay</t>
   </si>
   <si>
-    <t>cheap</t>
-  </si>
-  <si>
-    <t>thought</t>
-  </si>
-  <si>
-    <t>half</t>
-  </si>
-  <si>
-    <t>ok</t>
-  </si>
-  <si>
-    <t>tried</t>
+    <t>return</t>
+  </si>
+  <si>
+    <t>color</t>
+  </si>
+  <si>
+    <t>actually</t>
+  </si>
+  <si>
+    <t>sound</t>
   </si>
   <si>
     <t>bad</t>
   </si>
   <si>
-    <t>though</t>
-  </si>
-  <si>
-    <t>fl</t>
-  </si>
-  <si>
-    <t>return</t>
-  </si>
-  <si>
-    <t>bit</t>
+    <t>nothing</t>
+  </si>
+  <si>
+    <t>fit</t>
+  </si>
+  <si>
+    <t>minutes</t>
   </si>
   <si>
     <t>size</t>
   </si>
   <si>
-    <t>actually</t>
-  </si>
-  <si>
-    <t>nothing</t>
-  </si>
-  <si>
-    <t>color</t>
-  </si>
-  <si>
-    <t>parts</t>
-  </si>
-  <si>
-    <t>sound</t>
+    <t>money</t>
+  </si>
+  <si>
+    <t>back</t>
+  </si>
+  <si>
+    <t>would</t>
   </si>
   <si>
     <t>1</t>
   </si>
   <si>
+    <t>stay</t>
+  </si>
+  <si>
+    <t>item</t>
+  </si>
+  <si>
+    <t>hard</t>
+  </si>
+  <si>
     <t>work</t>
   </si>
   <si>
-    <t>item</t>
+    <t>used</t>
+  </si>
+  <si>
+    <t>price</t>
+  </si>
+  <si>
+    <t>picture</t>
+  </si>
+  <si>
+    <t>better</t>
   </si>
   <si>
     <t>could</t>
   </si>
   <si>
-    <t>fit</t>
-  </si>
-  <si>
-    <t>would</t>
-  </si>
-  <si>
-    <t>used</t>
-  </si>
-  <si>
-    <t>minutes</t>
-  </si>
-  <si>
-    <t>money</t>
-  </si>
-  <si>
-    <t>picture</t>
-  </si>
-  <si>
     <t>worked</t>
   </si>
   <si>
+    <t>product</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
     <t>need</t>
   </si>
   <si>
-    <t>hard</t>
-  </si>
-  <si>
-    <t>back</t>
-  </si>
-  <si>
-    <t>price</t>
-  </si>
-  <si>
-    <t>product</t>
+    <t>expected</t>
+  </si>
+  <si>
+    <t>pieces</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>use</t>
   </si>
   <si>
     <t>look</t>
   </si>
   <si>
-    <t>better</t>
-  </si>
-  <si>
-    <t>3</t>
+    <t>put</t>
   </si>
   <si>
     <t>5</t>
   </si>
   <si>
-    <t>expected</t>
+    <t>box</t>
+  </si>
+  <si>
+    <t>never</t>
   </si>
   <si>
     <t>way</t>
   </si>
   <si>
-    <t>use</t>
-  </si>
-  <si>
-    <t>pieces</t>
-  </si>
-  <si>
-    <t>2</t>
-  </si>
-  <si>
-    <t>think</t>
-  </si>
-  <si>
-    <t>box</t>
-  </si>
-  <si>
     <t>buy</t>
   </si>
   <si>
+    <t>4</t>
+  </si>
+  <si>
+    <t>even</t>
+  </si>
+  <si>
     <t>like</t>
   </si>
   <si>
     <t>little</t>
   </si>
   <si>
+    <t>much</t>
+  </si>
+  <si>
     <t>made</t>
   </si>
   <si>
-    <t>much</t>
-  </si>
-  <si>
-    <t>even</t>
+    <t>get</t>
+  </si>
+  <si>
+    <t>one</t>
   </si>
   <si>
     <t>toy</t>
   </si>
   <si>
-    <t>time</t>
-  </si>
-  <si>
-    <t>get</t>
-  </si>
-  <si>
-    <t>one</t>
-  </si>
-  <si>
     <t>negative</t>
   </si>
   <si>
@@ -328,12 +343,12 @@
     <t>amazing</t>
   </si>
   <si>
+    <t>fantastic</t>
+  </si>
+  <si>
     <t>favorite</t>
   </si>
   <si>
-    <t>enjoyable</t>
-  </si>
-  <si>
     <t>classic</t>
   </si>
   <si>
@@ -352,12 +367,12 @@
     <t>loves</t>
   </si>
   <si>
+    <t>best</t>
+  </si>
+  <si>
     <t>perfect</t>
   </si>
   <si>
-    <t>best</t>
-  </si>
-  <si>
     <t>loved</t>
   </si>
   <si>
@@ -370,16 +385,25 @@
     <t>learn</t>
   </si>
   <si>
+    <t>enjoy</t>
+  </si>
+  <si>
     <t>christmas</t>
   </si>
   <si>
     <t>fun</t>
   </si>
   <si>
+    <t>family</t>
+  </si>
+  <si>
+    <t>playing</t>
+  </si>
+  <si>
     <t>game</t>
   </si>
   <si>
-    <t>family</t>
+    <t>easy</t>
   </si>
   <si>
     <t>play</t>
@@ -743,7 +767,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q94"/>
+  <dimension ref="A1:Q99"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -751,10 +775,10 @@
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" t="s">
-        <v>100</v>
+        <v>105</v>
       </c>
       <c r="J1" t="s">
-        <v>123</v>
+        <v>131</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -812,13 +836,13 @@
         <v>8</v>
       </c>
       <c r="B3">
-        <v>1</v>
+        <v>0.9565217391304348</v>
       </c>
       <c r="C3">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="D3">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="E3">
         <v>0</v>
@@ -830,19 +854,19 @@
         <v>0</v>
       </c>
       <c r="H3">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>101</v>
+        <v>106</v>
       </c>
       <c r="K3">
-        <v>0.8035714285714286</v>
+        <v>0.875</v>
       </c>
       <c r="L3">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="M3">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="N3">
         <v>1</v>
@@ -854,7 +878,7 @@
         <v>0</v>
       </c>
       <c r="Q3">
-        <v>11</v>
+        <v>7</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -862,13 +886,13 @@
         <v>9</v>
       </c>
       <c r="B4">
-        <v>0.8636363636363636</v>
+        <v>0.8333333333333334</v>
       </c>
       <c r="C4">
-        <v>38</v>
+        <v>15</v>
       </c>
       <c r="D4">
-        <v>38</v>
+        <v>15</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -880,19 +904,19 @@
         <v>0</v>
       </c>
       <c r="H4">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>102</v>
+        <v>107</v>
       </c>
       <c r="K4">
-        <v>0.8</v>
+        <v>0.8461538461538461</v>
       </c>
       <c r="L4">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="M4">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="N4">
         <v>1</v>
@@ -904,7 +928,7 @@
         <v>0</v>
       </c>
       <c r="Q4">
-        <v>13</v>
+        <v>10</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -912,49 +936,49 @@
         <v>10</v>
       </c>
       <c r="B5">
+        <v>0.8095238095238095</v>
+      </c>
+      <c r="C5">
+        <v>17</v>
+      </c>
+      <c r="D5">
+        <v>17</v>
+      </c>
+      <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
+        <v>1</v>
+      </c>
+      <c r="G5" t="b">
+        <v>0</v>
+      </c>
+      <c r="H5">
+        <v>4</v>
+      </c>
+      <c r="J5" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="K5">
         <v>0.8148148148148148</v>
       </c>
-      <c r="C5">
+      <c r="L5">
         <v>22</v>
       </c>
-      <c r="D5">
+      <c r="M5">
         <v>22</v>
       </c>
-      <c r="E5">
-        <v>0</v>
-      </c>
-      <c r="F5">
-        <v>1</v>
-      </c>
-      <c r="G5" t="b">
-        <v>0</v>
-      </c>
-      <c r="H5">
+      <c r="N5">
+        <v>1</v>
+      </c>
+      <c r="O5">
+        <v>0</v>
+      </c>
+      <c r="P5" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q5">
         <v>5</v>
-      </c>
-      <c r="J5" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="K5">
-        <v>0.7407407407407407</v>
-      </c>
-      <c r="L5">
-        <v>20</v>
-      </c>
-      <c r="M5">
-        <v>20</v>
-      </c>
-      <c r="N5">
-        <v>1</v>
-      </c>
-      <c r="O5">
-        <v>0</v>
-      </c>
-      <c r="P5" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q5">
-        <v>7</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -983,16 +1007,16 @@
         <v>4</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>104</v>
+        <v>109</v>
       </c>
       <c r="K6">
-        <v>0.6774193548387096</v>
+        <v>0.75</v>
       </c>
       <c r="L6">
-        <v>63</v>
+        <v>15</v>
       </c>
       <c r="M6">
-        <v>63</v>
+        <v>15</v>
       </c>
       <c r="N6">
         <v>1</v>
@@ -1004,7 +1028,7 @@
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>30</v>
+        <v>5</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -1012,13 +1036,13 @@
         <v>12</v>
       </c>
       <c r="B7">
-        <v>0.8095238095238095</v>
+        <v>0.796875</v>
       </c>
       <c r="C7">
-        <v>17</v>
+        <v>51</v>
       </c>
       <c r="D7">
-        <v>17</v>
+        <v>51</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -1030,19 +1054,19 @@
         <v>0</v>
       </c>
       <c r="H7">
-        <v>4</v>
+        <v>13</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>105</v>
+        <v>110</v>
       </c>
       <c r="K7">
-        <v>0.6666666666666666</v>
+        <v>0.6451612903225806</v>
       </c>
       <c r="L7">
-        <v>16</v>
+        <v>60</v>
       </c>
       <c r="M7">
-        <v>16</v>
+        <v>60</v>
       </c>
       <c r="N7">
         <v>1</v>
@@ -1054,7 +1078,7 @@
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>8</v>
+        <v>33</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -1062,13 +1086,13 @@
         <v>13</v>
       </c>
       <c r="B8">
-        <v>0.8</v>
+        <v>0.7903225806451613</v>
       </c>
       <c r="C8">
-        <v>16</v>
+        <v>147</v>
       </c>
       <c r="D8">
-        <v>16</v>
+        <v>147</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -1080,19 +1104,19 @@
         <v>0</v>
       </c>
       <c r="H8">
-        <v>4</v>
+        <v>39</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>106</v>
+        <v>111</v>
       </c>
       <c r="K8">
-        <v>0.6226415094339622</v>
+        <v>0.6415094339622641</v>
       </c>
       <c r="L8">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="M8">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="N8">
         <v>1</v>
@@ -1104,7 +1128,7 @@
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -1112,13 +1136,13 @@
         <v>14</v>
       </c>
       <c r="B9">
-        <v>0.7931034482758621</v>
+        <v>0.7887323943661971</v>
       </c>
       <c r="C9">
-        <v>23</v>
+        <v>56</v>
       </c>
       <c r="D9">
-        <v>23</v>
+        <v>56</v>
       </c>
       <c r="E9">
         <v>0</v>
@@ -1130,19 +1154,19 @@
         <v>0</v>
       </c>
       <c r="H9">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>107</v>
+        <v>112</v>
       </c>
       <c r="K9">
-        <v>0.5</v>
+        <v>0.515625</v>
       </c>
       <c r="L9">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="M9">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="N9">
         <v>1</v>
@@ -1154,7 +1178,7 @@
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -1162,13 +1186,13 @@
         <v>15</v>
       </c>
       <c r="B10">
-        <v>0.78125</v>
+        <v>0.7631578947368421</v>
       </c>
       <c r="C10">
-        <v>50</v>
+        <v>29</v>
       </c>
       <c r="D10">
-        <v>50</v>
+        <v>29</v>
       </c>
       <c r="E10">
         <v>0</v>
@@ -1180,19 +1204,19 @@
         <v>0</v>
       </c>
       <c r="H10">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>108</v>
+        <v>113</v>
       </c>
       <c r="K10">
-        <v>0.4347826086956522</v>
+        <v>0.4492753623188406</v>
       </c>
       <c r="L10">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="M10">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="N10">
         <v>1</v>
@@ -1204,7 +1228,7 @@
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -1212,13 +1236,13 @@
         <v>16</v>
       </c>
       <c r="B11">
-        <v>0.7746478873239436</v>
+        <v>0.7586206896551724</v>
       </c>
       <c r="C11">
-        <v>55</v>
+        <v>22</v>
       </c>
       <c r="D11">
-        <v>55</v>
+        <v>22</v>
       </c>
       <c r="E11">
         <v>0</v>
@@ -1230,19 +1254,19 @@
         <v>0</v>
       </c>
       <c r="H11">
-        <v>16</v>
+        <v>7</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>109</v>
+        <v>114</v>
       </c>
       <c r="K11">
-        <v>0.3680327868852459</v>
+        <v>0.3795081967213115</v>
       </c>
       <c r="L11">
-        <v>449</v>
+        <v>463</v>
       </c>
       <c r="M11">
-        <v>449</v>
+        <v>463</v>
       </c>
       <c r="N11">
         <v>1</v>
@@ -1254,7 +1278,7 @@
         <v>0</v>
       </c>
       <c r="Q11">
-        <v>771</v>
+        <v>757</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -1262,13 +1286,13 @@
         <v>17</v>
       </c>
       <c r="B12">
-        <v>0.7631578947368421</v>
+        <v>0.75</v>
       </c>
       <c r="C12">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="D12">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="E12">
         <v>0</v>
@@ -1280,19 +1304,19 @@
         <v>0</v>
       </c>
       <c r="H12">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>110</v>
+        <v>115</v>
       </c>
       <c r="K12">
-        <v>0.3256814921090387</v>
+        <v>0.351506456241033</v>
       </c>
       <c r="L12">
-        <v>227</v>
+        <v>245</v>
       </c>
       <c r="M12">
-        <v>227</v>
+        <v>245</v>
       </c>
       <c r="N12">
         <v>1</v>
@@ -1304,7 +1328,7 @@
         <v>0</v>
       </c>
       <c r="Q12">
-        <v>470</v>
+        <v>452</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -1312,13 +1336,13 @@
         <v>18</v>
       </c>
       <c r="B13">
-        <v>0.7580645161290323</v>
+        <v>0.7330097087378641</v>
       </c>
       <c r="C13">
-        <v>141</v>
+        <v>151</v>
       </c>
       <c r="D13">
-        <v>141</v>
+        <v>151</v>
       </c>
       <c r="E13">
         <v>0</v>
@@ -1330,19 +1354,19 @@
         <v>0</v>
       </c>
       <c r="H13">
-        <v>45</v>
+        <v>55</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>111</v>
+        <v>116</v>
       </c>
       <c r="K13">
-        <v>0.3112033195020747</v>
+        <v>0.3049792531120332</v>
       </c>
       <c r="L13">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="M13">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="N13">
         <v>1</v>
@@ -1354,7 +1378,7 @@
         <v>0</v>
       </c>
       <c r="Q13">
-        <v>332</v>
+        <v>335</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -1362,13 +1386,13 @@
         <v>19</v>
       </c>
       <c r="B14">
-        <v>0.7135922330097088</v>
+        <v>0.6891891891891891</v>
       </c>
       <c r="C14">
-        <v>147</v>
+        <v>102</v>
       </c>
       <c r="D14">
-        <v>147</v>
+        <v>102</v>
       </c>
       <c r="E14">
         <v>0</v>
@@ -1380,19 +1404,19 @@
         <v>0</v>
       </c>
       <c r="H14">
-        <v>59</v>
+        <v>46</v>
       </c>
       <c r="J14" s="1" t="s">
-        <v>112</v>
+        <v>117</v>
       </c>
       <c r="K14">
-        <v>0.2168674698795181</v>
+        <v>0.2833333333333333</v>
       </c>
       <c r="L14">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="M14">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="N14">
         <v>1</v>
@@ -1404,7 +1428,7 @@
         <v>0</v>
       </c>
       <c r="Q14">
-        <v>130</v>
+        <v>86</v>
       </c>
     </row>
     <row r="15" spans="1:17">
@@ -1412,13 +1436,13 @@
         <v>20</v>
       </c>
       <c r="B15">
-        <v>0.68</v>
+        <v>0.6875</v>
       </c>
       <c r="C15">
-        <v>17</v>
+        <v>33</v>
       </c>
       <c r="D15">
-        <v>17</v>
+        <v>33</v>
       </c>
       <c r="E15">
         <v>0</v>
@@ -1430,19 +1454,19 @@
         <v>0</v>
       </c>
       <c r="H15">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="J15" s="1" t="s">
-        <v>113</v>
+        <v>118</v>
       </c>
       <c r="K15">
-        <v>0.2083333333333333</v>
+        <v>0.2168674698795181</v>
       </c>
       <c r="L15">
-        <v>25</v>
+        <v>36</v>
       </c>
       <c r="M15">
-        <v>25</v>
+        <v>36</v>
       </c>
       <c r="N15">
         <v>1</v>
@@ -1454,7 +1478,7 @@
         <v>0</v>
       </c>
       <c r="Q15">
-        <v>95</v>
+        <v>130</v>
       </c>
     </row>
     <row r="16" spans="1:17">
@@ -1462,13 +1486,13 @@
         <v>21</v>
       </c>
       <c r="B16">
-        <v>0.6621621621621622</v>
+        <v>0.68</v>
       </c>
       <c r="C16">
-        <v>98</v>
+        <v>17</v>
       </c>
       <c r="D16">
-        <v>98</v>
+        <v>17</v>
       </c>
       <c r="E16">
         <v>0</v>
@@ -1480,19 +1504,19 @@
         <v>0</v>
       </c>
       <c r="H16">
-        <v>50</v>
+        <v>8</v>
       </c>
       <c r="J16" s="1" t="s">
-        <v>114</v>
+        <v>119</v>
       </c>
       <c r="K16">
-        <v>0.1926605504587156</v>
+        <v>0.2110091743119266</v>
       </c>
       <c r="L16">
-        <v>63</v>
+        <v>69</v>
       </c>
       <c r="M16">
-        <v>63</v>
+        <v>69</v>
       </c>
       <c r="N16">
         <v>1</v>
@@ -1504,7 +1528,7 @@
         <v>0</v>
       </c>
       <c r="Q16">
-        <v>264</v>
+        <v>258</v>
       </c>
     </row>
     <row r="17" spans="1:17">
@@ -1512,13 +1536,13 @@
         <v>22</v>
       </c>
       <c r="B17">
-        <v>0.6571428571428571</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="C17">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="D17">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="E17">
         <v>0</v>
@@ -1530,19 +1554,19 @@
         <v>0</v>
       </c>
       <c r="H17">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="J17" s="1" t="s">
-        <v>115</v>
+        <v>120</v>
       </c>
       <c r="K17">
-        <v>0.164021164021164</v>
+        <v>0.1693121693121693</v>
       </c>
       <c r="L17">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="M17">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="N17">
         <v>1</v>
@@ -1554,7 +1578,7 @@
         <v>0</v>
       </c>
       <c r="Q17">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="18" spans="1:17">
@@ -1562,13 +1586,13 @@
         <v>23</v>
       </c>
       <c r="B18">
-        <v>0.6428571428571429</v>
+        <v>0.6181818181818182</v>
       </c>
       <c r="C18">
-        <v>27</v>
+        <v>34</v>
       </c>
       <c r="D18">
-        <v>27</v>
+        <v>34</v>
       </c>
       <c r="E18">
         <v>0</v>
@@ -1580,10 +1604,10 @@
         <v>0</v>
       </c>
       <c r="H18">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="J18" s="1" t="s">
-        <v>116</v>
+        <v>121</v>
       </c>
       <c r="K18">
         <v>0.119047619047619</v>
@@ -1612,13 +1636,13 @@
         <v>24</v>
       </c>
       <c r="B19">
-        <v>0.6285714285714286</v>
+        <v>0.5952380952380952</v>
       </c>
       <c r="C19">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="D19">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="E19">
         <v>0</v>
@@ -1630,10 +1654,10 @@
         <v>0</v>
       </c>
       <c r="H19">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="J19" s="1" t="s">
-        <v>117</v>
+        <v>122</v>
       </c>
       <c r="K19">
         <v>0.1171875</v>
@@ -1662,13 +1686,13 @@
         <v>25</v>
       </c>
       <c r="B20">
-        <v>0.6041666666666666</v>
+        <v>0.5789473684210527</v>
       </c>
       <c r="C20">
-        <v>29</v>
+        <v>22</v>
       </c>
       <c r="D20">
-        <v>29</v>
+        <v>22</v>
       </c>
       <c r="E20">
         <v>0</v>
@@ -1680,31 +1704,31 @@
         <v>0</v>
       </c>
       <c r="H20">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="J20" s="1" t="s">
-        <v>118</v>
+        <v>123</v>
       </c>
       <c r="K20">
-        <v>0.0963855421686747</v>
+        <v>0.1135135135135135</v>
       </c>
       <c r="L20">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="M20">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="N20">
-        <v>1</v>
+        <v>0.95</v>
       </c>
       <c r="O20">
-        <v>0</v>
+        <v>0.05000000000000004</v>
       </c>
       <c r="P20" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q20">
-        <v>225</v>
+        <v>164</v>
       </c>
     </row>
     <row r="21" spans="1:17">
@@ -1712,13 +1736,13 @@
         <v>26</v>
       </c>
       <c r="B21">
-        <v>0.5818181818181818</v>
+        <v>0.5714285714285714</v>
       </c>
       <c r="C21">
-        <v>32</v>
+        <v>68</v>
       </c>
       <c r="D21">
-        <v>32</v>
+        <v>68</v>
       </c>
       <c r="E21">
         <v>0</v>
@@ -1730,19 +1754,19 @@
         <v>0</v>
       </c>
       <c r="H21">
-        <v>23</v>
+        <v>51</v>
       </c>
       <c r="J21" s="1" t="s">
-        <v>119</v>
+        <v>124</v>
       </c>
       <c r="K21">
-        <v>0.09553023663453111</v>
+        <v>0.108433734939759</v>
       </c>
       <c r="L21">
-        <v>109</v>
+        <v>27</v>
       </c>
       <c r="M21">
-        <v>109</v>
+        <v>27</v>
       </c>
       <c r="N21">
         <v>1</v>
@@ -1754,7 +1778,7 @@
         <v>0</v>
       </c>
       <c r="Q21">
-        <v>1032</v>
+        <v>222</v>
       </c>
     </row>
     <row r="22" spans="1:17">
@@ -1762,13 +1786,13 @@
         <v>27</v>
       </c>
       <c r="B22">
-        <v>0.5798319327731093</v>
+        <v>0.5555555555555556</v>
       </c>
       <c r="C22">
-        <v>69</v>
+        <v>30</v>
       </c>
       <c r="D22">
-        <v>69</v>
+        <v>30</v>
       </c>
       <c r="E22">
         <v>0</v>
@@ -1780,31 +1804,31 @@
         <v>0</v>
       </c>
       <c r="H22">
-        <v>50</v>
+        <v>24</v>
       </c>
       <c r="J22" s="1" t="s">
-        <v>120</v>
+        <v>125</v>
       </c>
       <c r="K22">
-        <v>0.050682261208577</v>
+        <v>0.1034180543382997</v>
       </c>
       <c r="L22">
-        <v>78</v>
+        <v>118</v>
       </c>
       <c r="M22">
-        <v>80</v>
+        <v>118</v>
       </c>
       <c r="N22">
-        <v>0.97</v>
+        <v>1</v>
       </c>
       <c r="O22">
-        <v>0.03000000000000003</v>
+        <v>0</v>
       </c>
       <c r="P22" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q22">
-        <v>1461</v>
+        <v>1023</v>
       </c>
     </row>
     <row r="23" spans="1:17">
@@ -1812,13 +1836,13 @@
         <v>28</v>
       </c>
       <c r="B23">
-        <v>0.5789473684210527</v>
+        <v>0.5428571428571428</v>
       </c>
       <c r="C23">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="D23">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="E23">
         <v>0</v>
@@ -1833,16 +1857,16 @@
         <v>16</v>
       </c>
       <c r="J23" s="1" t="s">
-        <v>121</v>
+        <v>126</v>
       </c>
       <c r="K23">
-        <v>0.04456824512534819</v>
+        <v>0.05571030640668524</v>
       </c>
       <c r="L23">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="M23">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="N23">
         <v>1</v>
@@ -1854,7 +1878,7 @@
         <v>0</v>
       </c>
       <c r="Q23">
-        <v>343</v>
+        <v>339</v>
       </c>
     </row>
     <row r="24" spans="1:17">
@@ -1862,13 +1886,13 @@
         <v>29</v>
       </c>
       <c r="B24">
-        <v>0.5740740740740741</v>
+        <v>0.5217391304347826</v>
       </c>
       <c r="C24">
-        <v>31</v>
+        <v>180</v>
       </c>
       <c r="D24">
-        <v>31</v>
+        <v>180</v>
       </c>
       <c r="E24">
         <v>0</v>
@@ -1880,31 +1904,31 @@
         <v>0</v>
       </c>
       <c r="H24">
-        <v>23</v>
+        <v>165</v>
       </c>
       <c r="J24" s="1" t="s">
-        <v>122</v>
+        <v>127</v>
       </c>
       <c r="K24">
-        <v>0.02543507362784471</v>
+        <v>0.05555555555555555</v>
       </c>
       <c r="L24">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="M24">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="N24">
-        <v>0.79</v>
+        <v>1</v>
       </c>
       <c r="O24">
-        <v>0.21</v>
+        <v>0</v>
       </c>
       <c r="P24" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q24">
-        <v>728</v>
+        <v>306</v>
       </c>
     </row>
     <row r="25" spans="1:17">
@@ -1912,13 +1936,13 @@
         <v>30</v>
       </c>
       <c r="B25">
-        <v>0.5111111111111111</v>
+        <v>0.4857142857142857</v>
       </c>
       <c r="C25">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="D25">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="E25">
         <v>0</v>
@@ -1930,7 +1954,31 @@
         <v>0</v>
       </c>
       <c r="H25">
-        <v>22</v>
+        <v>18</v>
+      </c>
+      <c r="J25" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="K25">
+        <v>0.0474025974025974</v>
+      </c>
+      <c r="L25">
+        <v>73</v>
+      </c>
+      <c r="M25">
+        <v>74</v>
+      </c>
+      <c r="N25">
+        <v>0.99</v>
+      </c>
+      <c r="O25">
+        <v>0.01000000000000001</v>
+      </c>
+      <c r="P25" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q25">
+        <v>1467</v>
       </c>
     </row>
     <row r="26" spans="1:17">
@@ -1938,13 +1986,13 @@
         <v>31</v>
       </c>
       <c r="B26">
-        <v>0.5</v>
+        <v>0.4838709677419355</v>
       </c>
       <c r="C26">
-        <v>27</v>
+        <v>15</v>
       </c>
       <c r="D26">
-        <v>27</v>
+        <v>15</v>
       </c>
       <c r="E26">
         <v>0</v>
@@ -1956,7 +2004,31 @@
         <v>0</v>
       </c>
       <c r="H26">
-        <v>27</v>
+        <v>16</v>
+      </c>
+      <c r="J26" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="K26">
+        <v>0.04021447721179625</v>
+      </c>
+      <c r="L26">
+        <v>15</v>
+      </c>
+      <c r="M26">
+        <v>16</v>
+      </c>
+      <c r="N26">
+        <v>0.9399999999999999</v>
+      </c>
+      <c r="O26">
+        <v>0.06000000000000005</v>
+      </c>
+      <c r="P26" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q26">
+        <v>358</v>
       </c>
     </row>
     <row r="27" spans="1:17">
@@ -1964,13 +2036,13 @@
         <v>32</v>
       </c>
       <c r="B27">
-        <v>0.4956521739130435</v>
+        <v>0.4457831325301205</v>
       </c>
       <c r="C27">
-        <v>171</v>
+        <v>37</v>
       </c>
       <c r="D27">
-        <v>171</v>
+        <v>37</v>
       </c>
       <c r="E27">
         <v>0</v>
@@ -1982,7 +2054,31 @@
         <v>0</v>
       </c>
       <c r="H27">
-        <v>174</v>
+        <v>46</v>
+      </c>
+      <c r="J27" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="K27">
+        <v>0.02136181575433912</v>
+      </c>
+      <c r="L27">
+        <v>16</v>
+      </c>
+      <c r="M27">
+        <v>19</v>
+      </c>
+      <c r="N27">
+        <v>0.84</v>
+      </c>
+      <c r="O27">
+        <v>0.16</v>
+      </c>
+      <c r="P27" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q27">
+        <v>733</v>
       </c>
     </row>
     <row r="28" spans="1:17">
@@ -1990,13 +2086,13 @@
         <v>33</v>
       </c>
       <c r="B28">
-        <v>0.4939759036144578</v>
+        <v>0.4285714285714285</v>
       </c>
       <c r="C28">
-        <v>41</v>
+        <v>18</v>
       </c>
       <c r="D28">
-        <v>41</v>
+        <v>18</v>
       </c>
       <c r="E28">
         <v>0</v>
@@ -2008,7 +2104,7 @@
         <v>0</v>
       </c>
       <c r="H28">
-        <v>42</v>
+        <v>24</v>
       </c>
     </row>
     <row r="29" spans="1:17">
@@ -2016,13 +2112,13 @@
         <v>34</v>
       </c>
       <c r="B29">
-        <v>0.4871794871794872</v>
+        <v>0.4259259259259259</v>
       </c>
       <c r="C29">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="D29">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="E29">
         <v>0</v>
@@ -2034,7 +2130,7 @@
         <v>0</v>
       </c>
       <c r="H29">
-        <v>20</v>
+        <v>31</v>
       </c>
     </row>
     <row r="30" spans="1:17">
@@ -2042,13 +2138,13 @@
         <v>35</v>
       </c>
       <c r="B30">
-        <v>0.4566929133858268</v>
+        <v>0.4222222222222222</v>
       </c>
       <c r="C30">
-        <v>58</v>
+        <v>19</v>
       </c>
       <c r="D30">
-        <v>58</v>
+        <v>19</v>
       </c>
       <c r="E30">
         <v>0</v>
@@ -2060,7 +2156,7 @@
         <v>0</v>
       </c>
       <c r="H30">
-        <v>69</v>
+        <v>26</v>
       </c>
     </row>
     <row r="31" spans="1:17">
@@ -2068,13 +2164,13 @@
         <v>36</v>
       </c>
       <c r="B31">
-        <v>0.4444444444444444</v>
+        <v>0.4210526315789473</v>
       </c>
       <c r="C31">
-        <v>28</v>
+        <v>40</v>
       </c>
       <c r="D31">
-        <v>28</v>
+        <v>40</v>
       </c>
       <c r="E31">
         <v>0</v>
@@ -2086,7 +2182,7 @@
         <v>0</v>
       </c>
       <c r="H31">
-        <v>35</v>
+        <v>55</v>
       </c>
     </row>
     <row r="32" spans="1:17">
@@ -2094,13 +2190,13 @@
         <v>37</v>
       </c>
       <c r="B32">
-        <v>0.4285714285714285</v>
+        <v>0.4166666666666667</v>
       </c>
       <c r="C32">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="D32">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="E32">
         <v>0</v>
@@ -2112,7 +2208,7 @@
         <v>0</v>
       </c>
       <c r="H32">
-        <v>24</v>
+        <v>28</v>
       </c>
     </row>
     <row r="33" spans="1:8">
@@ -2120,13 +2216,13 @@
         <v>38</v>
       </c>
       <c r="B33">
-        <v>0.4285714285714285</v>
+        <v>0.4166666666666667</v>
       </c>
       <c r="C33">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="D33">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="E33">
         <v>0</v>
@@ -2138,7 +2234,7 @@
         <v>0</v>
       </c>
       <c r="H33">
-        <v>28</v>
+        <v>35</v>
       </c>
     </row>
     <row r="34" spans="1:8">
@@ -2146,13 +2242,13 @@
         <v>39</v>
       </c>
       <c r="B34">
-        <v>0.421875</v>
+        <v>0.4126984126984127</v>
       </c>
       <c r="C34">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D34">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E34">
         <v>0</v>
@@ -2172,13 +2268,13 @@
         <v>40</v>
       </c>
       <c r="B35">
-        <v>0.4181818181818182</v>
+        <v>0.4094488188976378</v>
       </c>
       <c r="C35">
-        <v>23</v>
+        <v>52</v>
       </c>
       <c r="D35">
-        <v>23</v>
+        <v>52</v>
       </c>
       <c r="E35">
         <v>0</v>
@@ -2190,7 +2286,7 @@
         <v>0</v>
       </c>
       <c r="H35">
-        <v>32</v>
+        <v>75</v>
       </c>
     </row>
     <row r="36" spans="1:8">
@@ -2198,13 +2294,13 @@
         <v>41</v>
       </c>
       <c r="B36">
-        <v>0.3953488372093023</v>
+        <v>0.4081632653061225</v>
       </c>
       <c r="C36">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="D36">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="E36">
         <v>0</v>
@@ -2216,7 +2312,7 @@
         <v>0</v>
       </c>
       <c r="H36">
-        <v>26</v>
+        <v>29</v>
       </c>
     </row>
     <row r="37" spans="1:8">
@@ -2224,13 +2320,13 @@
         <v>42</v>
       </c>
       <c r="B37">
-        <v>0.3932584269662922</v>
+        <v>0.3953488372093023</v>
       </c>
       <c r="C37">
-        <v>35</v>
+        <v>17</v>
       </c>
       <c r="D37">
-        <v>35</v>
+        <v>17</v>
       </c>
       <c r="E37">
         <v>0</v>
@@ -2242,7 +2338,7 @@
         <v>0</v>
       </c>
       <c r="H37">
-        <v>54</v>
+        <v>26</v>
       </c>
     </row>
     <row r="38" spans="1:8">
@@ -2250,25 +2346,25 @@
         <v>43</v>
       </c>
       <c r="B38">
-        <v>0.3833333333333334</v>
+        <v>0.3947368421052632</v>
       </c>
       <c r="C38">
+        <v>15</v>
+      </c>
+      <c r="D38">
+        <v>16</v>
+      </c>
+      <c r="E38">
+        <v>0.06</v>
+      </c>
+      <c r="F38">
+        <v>0.9399999999999999</v>
+      </c>
+      <c r="G38" t="b">
+        <v>1</v>
+      </c>
+      <c r="H38">
         <v>23</v>
-      </c>
-      <c r="D38">
-        <v>23</v>
-      </c>
-      <c r="E38">
-        <v>0</v>
-      </c>
-      <c r="F38">
-        <v>1</v>
-      </c>
-      <c r="G38" t="b">
-        <v>0</v>
-      </c>
-      <c r="H38">
-        <v>37</v>
       </c>
     </row>
     <row r="39" spans="1:8">
@@ -2276,13 +2372,13 @@
         <v>44</v>
       </c>
       <c r="B39">
-        <v>0.3789473684210526</v>
+        <v>0.390625</v>
       </c>
       <c r="C39">
-        <v>36</v>
+        <v>25</v>
       </c>
       <c r="D39">
-        <v>36</v>
+        <v>25</v>
       </c>
       <c r="E39">
         <v>0</v>
@@ -2294,7 +2390,7 @@
         <v>0</v>
       </c>
       <c r="H39">
-        <v>59</v>
+        <v>39</v>
       </c>
     </row>
     <row r="40" spans="1:8">
@@ -2302,13 +2398,13 @@
         <v>45</v>
       </c>
       <c r="B40">
-        <v>0.3571428571428572</v>
+        <v>0.3818181818181818</v>
       </c>
       <c r="C40">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D40">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E40">
         <v>0</v>
@@ -2320,7 +2416,7 @@
         <v>0</v>
       </c>
       <c r="H40">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="41" spans="1:8">
@@ -2328,13 +2424,13 @@
         <v>46</v>
       </c>
       <c r="B41">
-        <v>0.3492063492063492</v>
+        <v>0.3703703703703703</v>
       </c>
       <c r="C41">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="D41">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E41">
         <v>0</v>
@@ -2346,7 +2442,7 @@
         <v>0</v>
       </c>
       <c r="H41">
-        <v>41</v>
+        <v>34</v>
       </c>
     </row>
     <row r="42" spans="1:8">
@@ -2354,13 +2450,13 @@
         <v>47</v>
       </c>
       <c r="B42">
-        <v>0.3317535545023697</v>
+        <v>0.3663366336633663</v>
       </c>
       <c r="C42">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="D42">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="E42">
         <v>0</v>
@@ -2372,7 +2468,7 @@
         <v>0</v>
       </c>
       <c r="H42">
-        <v>141</v>
+        <v>128</v>
       </c>
     </row>
     <row r="43" spans="1:8">
@@ -2380,13 +2476,13 @@
         <v>48</v>
       </c>
       <c r="B43">
-        <v>0.3267326732673267</v>
+        <v>0.3658536585365854</v>
       </c>
       <c r="C43">
-        <v>66</v>
+        <v>15</v>
       </c>
       <c r="D43">
-        <v>66</v>
+        <v>15</v>
       </c>
       <c r="E43">
         <v>0</v>
@@ -2398,7 +2494,7 @@
         <v>0</v>
       </c>
       <c r="H43">
-        <v>136</v>
+        <v>26</v>
       </c>
     </row>
     <row r="44" spans="1:8">
@@ -2406,13 +2502,13 @@
         <v>49</v>
       </c>
       <c r="B44">
-        <v>0.3148148148148148</v>
+        <v>0.3442622950819672</v>
       </c>
       <c r="C44">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="D44">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="E44">
         <v>0</v>
@@ -2424,7 +2520,7 @@
         <v>0</v>
       </c>
       <c r="H44">
-        <v>37</v>
+        <v>40</v>
       </c>
     </row>
     <row r="45" spans="1:8">
@@ -2432,13 +2528,13 @@
         <v>50</v>
       </c>
       <c r="B45">
-        <v>0.3125</v>
+        <v>0.34375</v>
       </c>
       <c r="C45">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="D45">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="E45">
         <v>0</v>
@@ -2450,7 +2546,7 @@
         <v>0</v>
       </c>
       <c r="H45">
-        <v>88</v>
+        <v>84</v>
       </c>
     </row>
     <row r="46" spans="1:8">
@@ -2458,13 +2554,13 @@
         <v>51</v>
       </c>
       <c r="B46">
-        <v>0.3114754098360656</v>
+        <v>0.3370786516853932</v>
       </c>
       <c r="C46">
-        <v>19</v>
+        <v>30</v>
       </c>
       <c r="D46">
-        <v>19</v>
+        <v>30</v>
       </c>
       <c r="E46">
         <v>0</v>
@@ -2476,7 +2572,7 @@
         <v>0</v>
       </c>
       <c r="H46">
-        <v>42</v>
+        <v>59</v>
       </c>
     </row>
     <row r="47" spans="1:8">
@@ -2484,7 +2580,7 @@
         <v>52</v>
       </c>
       <c r="B47">
-        <v>0.2835820895522388</v>
+        <v>0.3275862068965517</v>
       </c>
       <c r="C47">
         <v>19</v>
@@ -2502,7 +2598,7 @@
         <v>0</v>
       </c>
       <c r="H47">
-        <v>48</v>
+        <v>39</v>
       </c>
     </row>
     <row r="48" spans="1:8">
@@ -2510,13 +2606,13 @@
         <v>53</v>
       </c>
       <c r="B48">
-        <v>0.282051282051282</v>
+        <v>0.3265306122448979</v>
       </c>
       <c r="C48">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D48">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E48">
         <v>0</v>
@@ -2528,7 +2624,7 @@
         <v>0</v>
       </c>
       <c r="H48">
-        <v>84</v>
+        <v>66</v>
       </c>
     </row>
     <row r="49" spans="1:8">
@@ -2536,13 +2632,13 @@
         <v>54</v>
       </c>
       <c r="B49">
-        <v>0.2758620689655172</v>
+        <v>0.3175355450236967</v>
       </c>
       <c r="C49">
-        <v>16</v>
+        <v>67</v>
       </c>
       <c r="D49">
-        <v>16</v>
+        <v>67</v>
       </c>
       <c r="E49">
         <v>0</v>
@@ -2554,7 +2650,7 @@
         <v>0</v>
       </c>
       <c r="H49">
-        <v>42</v>
+        <v>144</v>
       </c>
     </row>
     <row r="50" spans="1:8">
@@ -2562,7 +2658,7 @@
         <v>55</v>
       </c>
       <c r="B50">
-        <v>0.2741935483870968</v>
+        <v>0.3035714285714285</v>
       </c>
       <c r="C50">
         <v>17</v>
@@ -2580,7 +2676,7 @@
         <v>0</v>
       </c>
       <c r="H50">
-        <v>45</v>
+        <v>39</v>
       </c>
     </row>
     <row r="51" spans="1:8">
@@ -2588,13 +2684,13 @@
         <v>56</v>
       </c>
       <c r="B51">
-        <v>0.2653061224489796</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="C51">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="D51">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="E51">
         <v>0</v>
@@ -2606,7 +2702,7 @@
         <v>0</v>
       </c>
       <c r="H51">
-        <v>72</v>
+        <v>40</v>
       </c>
     </row>
     <row r="52" spans="1:8">
@@ -2614,13 +2710,13 @@
         <v>57</v>
       </c>
       <c r="B52">
-        <v>0.2525773195876289</v>
+        <v>0.282051282051282</v>
       </c>
       <c r="C52">
-        <v>49</v>
+        <v>33</v>
       </c>
       <c r="D52">
-        <v>49</v>
+        <v>33</v>
       </c>
       <c r="E52">
         <v>0</v>
@@ -2632,7 +2728,7 @@
         <v>0</v>
       </c>
       <c r="H52">
-        <v>145</v>
+        <v>84</v>
       </c>
     </row>
     <row r="53" spans="1:8">
@@ -2640,13 +2736,13 @@
         <v>58</v>
       </c>
       <c r="B53">
-        <v>0.25</v>
+        <v>0.2698412698412698</v>
       </c>
       <c r="C53">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="D53">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="E53">
         <v>0</v>
@@ -2658,7 +2754,7 @@
         <v>0</v>
       </c>
       <c r="H53">
-        <v>45</v>
+        <v>46</v>
       </c>
     </row>
     <row r="54" spans="1:8">
@@ -2666,13 +2762,13 @@
         <v>59</v>
       </c>
       <c r="B54">
-        <v>0.2417582417582418</v>
+        <v>0.2580645161290323</v>
       </c>
       <c r="C54">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="D54">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="E54">
         <v>0</v>
@@ -2684,7 +2780,7 @@
         <v>0</v>
       </c>
       <c r="H54">
-        <v>69</v>
+        <v>46</v>
       </c>
     </row>
     <row r="55" spans="1:8">
@@ -2692,13 +2788,13 @@
         <v>60</v>
       </c>
       <c r="B55">
-        <v>0.24</v>
+        <v>0.2533333333333334</v>
       </c>
       <c r="C55">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D55">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E55">
         <v>0</v>
@@ -2710,7 +2806,7 @@
         <v>0</v>
       </c>
       <c r="H55">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="56" spans="1:8">
@@ -2718,13 +2814,13 @@
         <v>61</v>
       </c>
       <c r="B56">
-        <v>0.2318840579710145</v>
+        <v>0.25</v>
       </c>
       <c r="C56">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D56">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E56">
         <v>0</v>
@@ -2736,7 +2832,7 @@
         <v>0</v>
       </c>
       <c r="H56">
-        <v>53</v>
+        <v>45</v>
       </c>
     </row>
     <row r="57" spans="1:8">
@@ -2744,13 +2840,13 @@
         <v>62</v>
       </c>
       <c r="B57">
-        <v>0.2318840579710145</v>
+        <v>0.2463768115942029</v>
       </c>
       <c r="C57">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D57">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E57">
         <v>0</v>
@@ -2762,7 +2858,7 @@
         <v>0</v>
       </c>
       <c r="H57">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="58" spans="1:8">
@@ -2770,13 +2866,13 @@
         <v>63</v>
       </c>
       <c r="B58">
-        <v>0.2203389830508475</v>
+        <v>0.2388059701492537</v>
       </c>
       <c r="C58">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="D58">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="E58">
         <v>0</v>
@@ -2788,7 +2884,7 @@
         <v>0</v>
       </c>
       <c r="H58">
-        <v>92</v>
+        <v>51</v>
       </c>
     </row>
     <row r="59" spans="1:8">
@@ -2796,13 +2892,13 @@
         <v>64</v>
       </c>
       <c r="B59">
-        <v>0.2183544303797468</v>
+        <v>0.2197802197802198</v>
       </c>
       <c r="C59">
-        <v>69</v>
+        <v>20</v>
       </c>
       <c r="D59">
-        <v>69</v>
+        <v>20</v>
       </c>
       <c r="E59">
         <v>0</v>
@@ -2814,7 +2910,7 @@
         <v>0</v>
       </c>
       <c r="H59">
-        <v>247</v>
+        <v>71</v>
       </c>
     </row>
     <row r="60" spans="1:8">
@@ -2822,13 +2918,13 @@
         <v>65</v>
       </c>
       <c r="B60">
-        <v>0.2173913043478261</v>
+        <v>0.2164948453608248</v>
       </c>
       <c r="C60">
-        <v>60</v>
+        <v>21</v>
       </c>
       <c r="D60">
-        <v>60</v>
+        <v>21</v>
       </c>
       <c r="E60">
         <v>0</v>
@@ -2840,7 +2936,7 @@
         <v>0</v>
       </c>
       <c r="H60">
-        <v>216</v>
+        <v>76</v>
       </c>
     </row>
     <row r="61" spans="1:8">
@@ -2848,13 +2944,13 @@
         <v>66</v>
       </c>
       <c r="B61">
-        <v>0.2165605095541401</v>
+        <v>0.2162162162162162</v>
       </c>
       <c r="C61">
-        <v>34</v>
+        <v>16</v>
       </c>
       <c r="D61">
-        <v>34</v>
+        <v>16</v>
       </c>
       <c r="E61">
         <v>0</v>
@@ -2866,7 +2962,7 @@
         <v>0</v>
       </c>
       <c r="H61">
-        <v>123</v>
+        <v>58</v>
       </c>
     </row>
     <row r="62" spans="1:8">
@@ -2874,13 +2970,13 @@
         <v>67</v>
       </c>
       <c r="B62">
-        <v>0.2164948453608248</v>
+        <v>0.211340206185567</v>
       </c>
       <c r="C62">
-        <v>21</v>
+        <v>41</v>
       </c>
       <c r="D62">
-        <v>21</v>
+        <v>41</v>
       </c>
       <c r="E62">
         <v>0</v>
@@ -2892,7 +2988,7 @@
         <v>0</v>
       </c>
       <c r="H62">
-        <v>76</v>
+        <v>153</v>
       </c>
     </row>
     <row r="63" spans="1:8">
@@ -2900,13 +2996,13 @@
         <v>68</v>
       </c>
       <c r="B63">
-        <v>0.2077151335311573</v>
+        <v>0.2088607594936709</v>
       </c>
       <c r="C63">
-        <v>140</v>
+        <v>66</v>
       </c>
       <c r="D63">
-        <v>140</v>
+        <v>66</v>
       </c>
       <c r="E63">
         <v>0</v>
@@ -2918,7 +3014,7 @@
         <v>0</v>
       </c>
       <c r="H63">
-        <v>534</v>
+        <v>250</v>
       </c>
     </row>
     <row r="64" spans="1:8">
@@ -2926,13 +3022,13 @@
         <v>69</v>
       </c>
       <c r="B64">
-        <v>0.2057142857142857</v>
+        <v>0.2071428571428572</v>
       </c>
       <c r="C64">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="D64">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="E64">
         <v>0</v>
@@ -2944,7 +3040,7 @@
         <v>0</v>
       </c>
       <c r="H64">
-        <v>139</v>
+        <v>111</v>
       </c>
     </row>
     <row r="65" spans="1:8">
@@ -2952,13 +3048,13 @@
         <v>70</v>
       </c>
       <c r="B65">
-        <v>0.2027027027027027</v>
+        <v>0.2047477744807122</v>
       </c>
       <c r="C65">
-        <v>15</v>
+        <v>138</v>
       </c>
       <c r="D65">
-        <v>15</v>
+        <v>138</v>
       </c>
       <c r="E65">
         <v>0</v>
@@ -2970,7 +3066,7 @@
         <v>0</v>
       </c>
       <c r="H65">
-        <v>59</v>
+        <v>536</v>
       </c>
     </row>
     <row r="66" spans="1:8">
@@ -2978,13 +3074,13 @@
         <v>71</v>
       </c>
       <c r="B66">
-        <v>0.1993670886075949</v>
+        <v>0.1949152542372881</v>
       </c>
       <c r="C66">
-        <v>63</v>
+        <v>23</v>
       </c>
       <c r="D66">
-        <v>63</v>
+        <v>23</v>
       </c>
       <c r="E66">
         <v>0</v>
@@ -2996,7 +3092,7 @@
         <v>0</v>
       </c>
       <c r="H66">
-        <v>253</v>
+        <v>95</v>
       </c>
     </row>
     <row r="67" spans="1:8">
@@ -3004,13 +3100,13 @@
         <v>72</v>
       </c>
       <c r="B67">
-        <v>0.1958762886597938</v>
+        <v>0.1923076923076923</v>
       </c>
       <c r="C67">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="D67">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="E67">
         <v>0</v>
@@ -3022,7 +3118,7 @@
         <v>0</v>
       </c>
       <c r="H67">
-        <v>78</v>
+        <v>63</v>
       </c>
     </row>
     <row r="68" spans="1:8">
@@ -3030,25 +3126,25 @@
         <v>73</v>
       </c>
       <c r="B68">
-        <v>0.1869158878504673</v>
+        <v>0.1920289855072464</v>
       </c>
       <c r="C68">
-        <v>20</v>
+        <v>53</v>
       </c>
       <c r="D68">
-        <v>21</v>
+        <v>53</v>
       </c>
       <c r="E68">
-        <v>0.05</v>
+        <v>0</v>
       </c>
       <c r="F68">
-        <v>0.95</v>
+        <v>1</v>
       </c>
       <c r="G68" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H68">
-        <v>87</v>
+        <v>223</v>
       </c>
     </row>
     <row r="69" spans="1:8">
@@ -3056,13 +3152,13 @@
         <v>74</v>
       </c>
       <c r="B69">
-        <v>0.1846153846153846</v>
+        <v>0.19</v>
       </c>
       <c r="C69">
-        <v>24</v>
+        <v>38</v>
       </c>
       <c r="D69">
-        <v>24</v>
+        <v>38</v>
       </c>
       <c r="E69">
         <v>0</v>
@@ -3074,7 +3170,7 @@
         <v>0</v>
       </c>
       <c r="H69">
-        <v>106</v>
+        <v>162</v>
       </c>
     </row>
     <row r="70" spans="1:8">
@@ -3082,13 +3178,13 @@
         <v>75</v>
       </c>
       <c r="B70">
-        <v>0.18</v>
+        <v>0.1867088607594937</v>
       </c>
       <c r="C70">
-        <v>36</v>
+        <v>59</v>
       </c>
       <c r="D70">
-        <v>36</v>
+        <v>59</v>
       </c>
       <c r="E70">
         <v>0</v>
@@ -3100,7 +3196,7 @@
         <v>0</v>
       </c>
       <c r="H70">
-        <v>164</v>
+        <v>257</v>
       </c>
     </row>
     <row r="71" spans="1:8">
@@ -3108,13 +3204,13 @@
         <v>76</v>
       </c>
       <c r="B71">
-        <v>0.1785714285714286</v>
+        <v>0.1771428571428571</v>
       </c>
       <c r="C71">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="D71">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="E71">
         <v>0</v>
@@ -3126,7 +3222,7 @@
         <v>0</v>
       </c>
       <c r="H71">
-        <v>115</v>
+        <v>144</v>
       </c>
     </row>
     <row r="72" spans="1:8">
@@ -3160,13 +3256,13 @@
         <v>78</v>
       </c>
       <c r="B73">
-        <v>0.1651982378854626</v>
+        <v>0.1649484536082474</v>
       </c>
       <c r="C73">
-        <v>75</v>
+        <v>16</v>
       </c>
       <c r="D73">
-        <v>75</v>
+        <v>16</v>
       </c>
       <c r="E73">
         <v>0</v>
@@ -3178,7 +3274,7 @@
         <v>0</v>
       </c>
       <c r="H73">
-        <v>379</v>
+        <v>81</v>
       </c>
     </row>
     <row r="74" spans="1:8">
@@ -3186,13 +3282,13 @@
         <v>79</v>
       </c>
       <c r="B74">
-        <v>0.15625</v>
+        <v>0.1635514018691589</v>
       </c>
       <c r="C74">
-        <v>20</v>
+        <v>35</v>
       </c>
       <c r="D74">
-        <v>20</v>
+        <v>35</v>
       </c>
       <c r="E74">
         <v>0</v>
@@ -3204,7 +3300,7 @@
         <v>0</v>
       </c>
       <c r="H74">
-        <v>108</v>
+        <v>179</v>
       </c>
     </row>
     <row r="75" spans="1:8">
@@ -3212,13 +3308,13 @@
         <v>80</v>
       </c>
       <c r="B75">
-        <v>0.1542056074766355</v>
+        <v>0.1592356687898089</v>
       </c>
       <c r="C75">
-        <v>33</v>
+        <v>25</v>
       </c>
       <c r="D75">
-        <v>33</v>
+        <v>25</v>
       </c>
       <c r="E75">
         <v>0</v>
@@ -3230,7 +3326,7 @@
         <v>0</v>
       </c>
       <c r="H75">
-        <v>181</v>
+        <v>132</v>
       </c>
     </row>
     <row r="76" spans="1:8">
@@ -3238,25 +3334,25 @@
         <v>81</v>
       </c>
       <c r="B76">
-        <v>0.1370967741935484</v>
+        <v>0.1588785046728972</v>
       </c>
       <c r="C76">
-        <v>34</v>
+        <v>17</v>
       </c>
       <c r="D76">
-        <v>34</v>
+        <v>18</v>
       </c>
       <c r="E76">
-        <v>0</v>
+        <v>0.06</v>
       </c>
       <c r="F76">
-        <v>1</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="G76" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H76">
-        <v>214</v>
+        <v>90</v>
       </c>
     </row>
     <row r="77" spans="1:8">
@@ -3264,25 +3360,25 @@
         <v>82</v>
       </c>
       <c r="B77">
-        <v>0.1329787234042553</v>
+        <v>0.1563876651982379</v>
       </c>
       <c r="C77">
-        <v>25</v>
+        <v>71</v>
       </c>
       <c r="D77">
-        <v>26</v>
+        <v>71</v>
       </c>
       <c r="E77">
-        <v>0.04</v>
+        <v>0</v>
       </c>
       <c r="F77">
-        <v>0.96</v>
+        <v>1</v>
       </c>
       <c r="G77" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H77">
-        <v>163</v>
+        <v>383</v>
       </c>
     </row>
     <row r="78" spans="1:8">
@@ -3290,25 +3386,25 @@
         <v>83</v>
       </c>
       <c r="B78">
-        <v>0.1197916666666667</v>
+        <v>0.1463414634146341</v>
       </c>
       <c r="C78">
-        <v>23</v>
+        <v>36</v>
       </c>
       <c r="D78">
-        <v>23</v>
+        <v>38</v>
       </c>
       <c r="E78">
-        <v>0</v>
+        <v>0.05</v>
       </c>
       <c r="F78">
-        <v>1</v>
+        <v>0.95</v>
       </c>
       <c r="G78" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H78">
-        <v>169</v>
+        <v>210</v>
       </c>
     </row>
     <row r="79" spans="1:8">
@@ -3316,25 +3412,25 @@
         <v>84</v>
       </c>
       <c r="B79">
-        <v>0.1117647058823529</v>
+        <v>0.1461538461538462</v>
       </c>
       <c r="C79">
         <v>19</v>
       </c>
       <c r="D79">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E79">
-        <v>0.05</v>
+        <v>0</v>
       </c>
       <c r="F79">
-        <v>0.95</v>
+        <v>1</v>
       </c>
       <c r="G79" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H79">
-        <v>151</v>
+        <v>111</v>
       </c>
     </row>
     <row r="80" spans="1:8">
@@ -3342,13 +3438,13 @@
         <v>85</v>
       </c>
       <c r="B80">
-        <v>0.1041095890410959</v>
+        <v>0.1354166666666667</v>
       </c>
       <c r="C80">
-        <v>38</v>
+        <v>26</v>
       </c>
       <c r="D80">
-        <v>38</v>
+        <v>26</v>
       </c>
       <c r="E80">
         <v>0</v>
@@ -3360,7 +3456,7 @@
         <v>0</v>
       </c>
       <c r="H80">
-        <v>327</v>
+        <v>166</v>
       </c>
     </row>
     <row r="81" spans="1:8">
@@ -3368,13 +3464,13 @@
         <v>86</v>
       </c>
       <c r="B81">
-        <v>0.09836065573770492</v>
+        <v>0.1311475409836066</v>
       </c>
       <c r="C81">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="D81">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="E81">
         <v>0</v>
@@ -3386,7 +3482,7 @@
         <v>0</v>
       </c>
       <c r="H81">
-        <v>165</v>
+        <v>159</v>
       </c>
     </row>
     <row r="82" spans="1:8">
@@ -3394,13 +3490,13 @@
         <v>87</v>
       </c>
       <c r="B82">
-        <v>0.09737827715355805</v>
+        <v>0.1310861423220974</v>
       </c>
       <c r="C82">
-        <v>26</v>
+        <v>35</v>
       </c>
       <c r="D82">
-        <v>26</v>
+        <v>35</v>
       </c>
       <c r="E82">
         <v>0</v>
@@ -3412,7 +3508,7 @@
         <v>0</v>
       </c>
       <c r="H82">
-        <v>241</v>
+        <v>232</v>
       </c>
     </row>
     <row r="83" spans="1:8">
@@ -3420,13 +3516,13 @@
         <v>88</v>
       </c>
       <c r="B83">
-        <v>0.09316770186335403</v>
+        <v>0.1205479452054795</v>
       </c>
       <c r="C83">
-        <v>15</v>
+        <v>44</v>
       </c>
       <c r="D83">
-        <v>15</v>
+        <v>44</v>
       </c>
       <c r="E83">
         <v>0</v>
@@ -3438,7 +3534,7 @@
         <v>0</v>
       </c>
       <c r="H83">
-        <v>146</v>
+        <v>321</v>
       </c>
     </row>
     <row r="84" spans="1:8">
@@ -3446,25 +3542,25 @@
         <v>89</v>
       </c>
       <c r="B84">
-        <v>0.08900523560209424</v>
+        <v>0.1181102362204724</v>
       </c>
       <c r="C84">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D84">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E84">
-        <v>0</v>
+        <v>0.06</v>
       </c>
       <c r="F84">
-        <v>1</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="G84" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H84">
-        <v>174</v>
+        <v>112</v>
       </c>
     </row>
     <row r="85" spans="1:8">
@@ -3472,13 +3568,13 @@
         <v>90</v>
       </c>
       <c r="B85">
-        <v>0.08450704225352113</v>
+        <v>0.1168831168831169</v>
       </c>
       <c r="C85">
-        <v>30</v>
+        <v>18</v>
       </c>
       <c r="D85">
-        <v>30</v>
+        <v>18</v>
       </c>
       <c r="E85">
         <v>0</v>
@@ -3490,7 +3586,7 @@
         <v>0</v>
       </c>
       <c r="H85">
-        <v>325</v>
+        <v>136</v>
       </c>
     </row>
     <row r="86" spans="1:8">
@@ -3498,25 +3594,25 @@
         <v>91</v>
       </c>
       <c r="B86">
-        <v>0.08250825082508251</v>
+        <v>0.1122994652406417</v>
       </c>
       <c r="C86">
-        <v>50</v>
+        <v>21</v>
       </c>
       <c r="D86">
-        <v>52</v>
+        <v>23</v>
       </c>
       <c r="E86">
-        <v>0.04</v>
+        <v>0.09</v>
       </c>
       <c r="F86">
-        <v>0.96</v>
+        <v>0.91</v>
       </c>
       <c r="G86" t="b">
         <v>1</v>
       </c>
       <c r="H86">
-        <v>556</v>
+        <v>166</v>
       </c>
     </row>
     <row r="87" spans="1:8">
@@ -3524,25 +3620,25 @@
         <v>92</v>
       </c>
       <c r="B87">
-        <v>0.07572383073496659</v>
+        <v>0.1105263157894737</v>
       </c>
       <c r="C87">
-        <v>34</v>
+        <v>21</v>
       </c>
       <c r="D87">
-        <v>34</v>
+        <v>22</v>
       </c>
       <c r="E87">
-        <v>0</v>
+        <v>0.05</v>
       </c>
       <c r="F87">
-        <v>1</v>
+        <v>0.95</v>
       </c>
       <c r="G87" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H87">
-        <v>415</v>
+        <v>169</v>
       </c>
     </row>
     <row r="88" spans="1:8">
@@ -3550,25 +3646,25 @@
         <v>93</v>
       </c>
       <c r="B88">
-        <v>0.07278481012658228</v>
+        <v>0.1013513513513514</v>
       </c>
       <c r="C88">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="D88">
-        <v>24</v>
+        <v>15</v>
       </c>
       <c r="E88">
-        <v>0.04</v>
+        <v>0</v>
       </c>
       <c r="F88">
-        <v>0.96</v>
+        <v>1</v>
       </c>
       <c r="G88" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H88">
-        <v>293</v>
+        <v>133</v>
       </c>
     </row>
     <row r="89" spans="1:8">
@@ -3576,25 +3672,25 @@
         <v>94</v>
       </c>
       <c r="B89">
-        <v>0.06046511627906977</v>
+        <v>0.09411764705882353</v>
       </c>
       <c r="C89">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="D89">
-        <v>30</v>
+        <v>17</v>
       </c>
       <c r="E89">
-        <v>0.13</v>
+        <v>0.06</v>
       </c>
       <c r="F89">
-        <v>0.87</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="G89" t="b">
         <v>1</v>
       </c>
       <c r="H89">
-        <v>404</v>
+        <v>154</v>
       </c>
     </row>
     <row r="90" spans="1:8">
@@ -3602,13 +3698,13 @@
         <v>95</v>
       </c>
       <c r="B90">
-        <v>0.05357142857142857</v>
+        <v>0.09014084507042254</v>
       </c>
       <c r="C90">
-        <v>15</v>
+        <v>32</v>
       </c>
       <c r="D90">
-        <v>15</v>
+        <v>32</v>
       </c>
       <c r="E90">
         <v>0</v>
@@ -3620,7 +3716,7 @@
         <v>0</v>
       </c>
       <c r="H90">
-        <v>265</v>
+        <v>323</v>
       </c>
     </row>
     <row r="91" spans="1:8">
@@ -3628,25 +3724,25 @@
         <v>96</v>
       </c>
       <c r="B91">
-        <v>0.04301075268817205</v>
+        <v>0.08670520231213873</v>
       </c>
       <c r="C91">
-        <v>28</v>
+        <v>15</v>
       </c>
       <c r="D91">
-        <v>32</v>
+        <v>15</v>
       </c>
       <c r="E91">
-        <v>0.12</v>
+        <v>0</v>
       </c>
       <c r="F91">
-        <v>0.88</v>
+        <v>1</v>
       </c>
       <c r="G91" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H91">
-        <v>623</v>
+        <v>158</v>
       </c>
     </row>
     <row r="92" spans="1:8">
@@ -3654,25 +3750,25 @@
         <v>97</v>
       </c>
       <c r="B92">
-        <v>0.04279279279279279</v>
+        <v>0.08273381294964029</v>
       </c>
       <c r="C92">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="D92">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="E92">
-        <v>0.14</v>
+        <v>0.08</v>
       </c>
       <c r="F92">
-        <v>0.86</v>
+        <v>0.92</v>
       </c>
       <c r="G92" t="b">
         <v>1</v>
       </c>
       <c r="H92">
-        <v>425</v>
+        <v>255</v>
       </c>
     </row>
     <row r="93" spans="1:8">
@@ -3680,25 +3776,25 @@
         <v>98</v>
       </c>
       <c r="B93">
-        <v>0.0397196261682243</v>
+        <v>0.07920792079207921</v>
       </c>
       <c r="C93">
-        <v>17</v>
+        <v>48</v>
       </c>
       <c r="D93">
-        <v>18</v>
+        <v>50</v>
       </c>
       <c r="E93">
-        <v>0.06</v>
+        <v>0.04</v>
       </c>
       <c r="F93">
-        <v>0.9399999999999999</v>
+        <v>0.96</v>
       </c>
       <c r="G93" t="b">
         <v>1</v>
       </c>
       <c r="H93">
-        <v>411</v>
+        <v>558</v>
       </c>
     </row>
     <row r="94" spans="1:8">
@@ -3706,25 +3802,155 @@
         <v>99</v>
       </c>
       <c r="B94">
-        <v>0.03807106598984772</v>
+        <v>0.07366071428571429</v>
       </c>
       <c r="C94">
+        <v>33</v>
+      </c>
+      <c r="D94">
+        <v>34</v>
+      </c>
+      <c r="E94">
+        <v>0.03</v>
+      </c>
+      <c r="F94">
+        <v>0.97</v>
+      </c>
+      <c r="G94" t="b">
+        <v>1</v>
+      </c>
+      <c r="H94">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="95" spans="1:8">
+      <c r="A95" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="B95">
+        <v>0.05827505827505827</v>
+      </c>
+      <c r="C95">
+        <v>25</v>
+      </c>
+      <c r="D95">
         <v>30</v>
       </c>
-      <c r="D94">
+      <c r="E95">
+        <v>0.17</v>
+      </c>
+      <c r="F95">
+        <v>0.83</v>
+      </c>
+      <c r="G95" t="b">
+        <v>1</v>
+      </c>
+      <c r="H95">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="96" spans="1:8">
+      <c r="A96" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="B96">
+        <v>0.05678233438485805</v>
+      </c>
+      <c r="C96">
+        <v>18</v>
+      </c>
+      <c r="D96">
+        <v>18</v>
+      </c>
+      <c r="E96">
+        <v>0</v>
+      </c>
+      <c r="F96">
+        <v>1</v>
+      </c>
+      <c r="G96" t="b">
+        <v>0</v>
+      </c>
+      <c r="H96">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="97" spans="1:8">
+      <c r="A97" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="B97">
+        <v>0.04918032786885246</v>
+      </c>
+      <c r="C97">
+        <v>21</v>
+      </c>
+      <c r="D97">
+        <v>23</v>
+      </c>
+      <c r="E97">
+        <v>0.09</v>
+      </c>
+      <c r="F97">
+        <v>0.91</v>
+      </c>
+      <c r="G97" t="b">
+        <v>1</v>
+      </c>
+      <c r="H97">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="98" spans="1:8">
+      <c r="A98" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="B98">
+        <v>0.04556962025316456</v>
+      </c>
+      <c r="C98">
         <v>36</v>
       </c>
-      <c r="E94">
-        <v>0.17</v>
-      </c>
-      <c r="F94">
-        <v>0.83</v>
-      </c>
-      <c r="G94" t="b">
-        <v>1</v>
-      </c>
-      <c r="H94">
-        <v>758</v>
+      <c r="D98">
+        <v>40</v>
+      </c>
+      <c r="E98">
+        <v>0.1</v>
+      </c>
+      <c r="F98">
+        <v>0.9</v>
+      </c>
+      <c r="G98" t="b">
+        <v>1</v>
+      </c>
+      <c r="H98">
+        <v>754</v>
+      </c>
+    </row>
+    <row r="99" spans="1:8">
+      <c r="A99" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="B99">
+        <v>0.03062787136294028</v>
+      </c>
+      <c r="C99">
+        <v>20</v>
+      </c>
+      <c r="D99">
+        <v>22</v>
+      </c>
+      <c r="E99">
+        <v>0.09</v>
+      </c>
+      <c r="F99">
+        <v>0.91</v>
+      </c>
+      <c r="G99" t="b">
+        <v>1</v>
+      </c>
+      <c r="H99">
+        <v>633</v>
       </c>
     </row>
   </sheetData>
